--- a/kinoIS/KinoIS.Web/Files/users.xlsx
+++ b/kinoIS/KinoIS.Web/Files/users.xlsx
@@ -32,16 +32,16 @@
     <t>Import1123;</t>
   </si>
   <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>i2@gmail.com</t>
+  </si>
+  <si>
+    <t>Import2123;</t>
+  </si>
+  <si>
     <t>Admin</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>i2@gmail.com</t>
-  </si>
-  <si>
-    <t>Import2123;</t>
   </si>
   <si>
     <t>i3@gmail.com</t>
@@ -384,9 +384,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -402,13 +402,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -419,7 +419,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
